--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_9.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>220490.3298424745</v>
+        <v>214432.5766650632</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9018357.304230543</v>
+        <v>10124838.89138235</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15171179.65621874</v>
+        <v>16255642.25978624</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5464041.374299646</v>
+        <v>5073969.64886265</v>
       </c>
     </row>
     <row r="11">
@@ -707,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>46.39658611529718</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>82.78884068401464</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -817,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>93.52529077486065</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>202.5496269016835</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>31.53029719162741</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="7">
@@ -1105,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>202.5496269016835</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>27.98289658589034</v>
       </c>
-      <c r="D8" t="n">
+      <c r="F8" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>229.9609751381512</v>
@@ -1209,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>71.45838075115186</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1263,13 +1265,13 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T9" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>174.475748989618</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1278,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="V10" t="n">
-        <v>109.0606995868097</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>202.5496269016834</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,16 +1375,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>65.59588116322361</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>93.09545221568158</v>
+      </c>
+      <c r="G11" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="F11" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>229.9609751381512</v>
@@ -1415,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1549,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1585,7 +1587,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="V13" t="n">
-        <v>78.98621211465068</v>
+        <v>109.0606995868097</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1658,22 +1660,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V14" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="W14" t="n">
-        <v>229.9609751381512</v>
+        <v>8.783601537963911</v>
       </c>
       <c r="X14" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.08822281599018904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,25 +1685,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>101.0602290075064</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H15" t="n">
-        <v>9.924909203847411</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I15" t="n">
         <v>48.89338144820752</v>
@@ -1740,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1847,19 +1849,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>229.9609751381512</v>
+        <v>202.5496269016835</v>
       </c>
       <c r="F17" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="G17" t="n">
-        <v>202.5496269016834</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2078,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>202.5496269016834</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>147.8989349792627</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
     </row>
     <row r="21">
@@ -2157,28 +2159,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>207.9625118881446</v>
+        <v>79.36679566671111</v>
       </c>
       <c r="V21" t="n">
         <v>220.3146016126436</v>
@@ -2239,10 +2241,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,16 +2253,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>72.45790124509887</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>153.923765528121</v>
+        <v>33.85234340975167</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2302,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -2315,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>168.0609947011712</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2330,10 +2332,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,25 +2365,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>207.7182481934005</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2400,22 +2402,22 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D24" t="n">
-        <v>128.7880777047345</v>
+        <v>20.53340687021141</v>
       </c>
       <c r="E24" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F24" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>133.5813703291298</v>
@@ -2476,28 +2478,28 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>31.31896351648543</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>115.6099017099849</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>202.5496269016834</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2570,10 +2572,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>296.9849967447997</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
     </row>
     <row r="27">
@@ -2631,28 +2633,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67787267091717</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>207.9625118881446</v>
@@ -2700,7 +2702,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y27" t="n">
-        <v>177.5210747552478</v>
+        <v>48.92535853381431</v>
       </c>
     </row>
     <row r="28">
@@ -2713,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>85.84356265118774</v>
+        <v>33.46568883433531</v>
       </c>
       <c r="F28" t="n">
         <v>155.7526754391568</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -2789,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>211.1333227810368</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2843,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>202.5496269016835</v>
       </c>
     </row>
     <row r="30">
@@ -2868,28 +2870,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>48.89338144820825</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>207.9625118881446</v>
@@ -2937,7 +2939,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y30" t="n">
-        <v>177.5210747552478</v>
+        <v>48.92535853381431</v>
       </c>
     </row>
     <row r="31">
@@ -2950,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>9.947215833530075</v>
       </c>
       <c r="D31" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>38.40017750313985</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3010,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>361.4511511311439</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>361.4511511311439</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>202.5496269016835</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3092,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>318.3661739163114</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>361.4511511311439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3159,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>82.26529954011225</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>207.9625118881446</v>
@@ -3174,7 +3176,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y33" t="n">
-        <v>177.5210747552478</v>
+        <v>48.92535853381431</v>
       </c>
     </row>
     <row r="34">
@@ -3184,31 +3186,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E34" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>11.61260049965488</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>202.5496269016834</v>
       </c>
       <c r="E35" t="n">
-        <v>361.4511511311439</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>361.4511511311439</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>361.4511511311439</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3317,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>65.17097164656388</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3329,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3351,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>72.89601475996216</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3393,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>207.9625118881446</v>
@@ -3411,7 +3413,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y36" t="n">
-        <v>177.5210747552478</v>
+        <v>48.92535853381431</v>
       </c>
     </row>
     <row r="37">
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>113.1667354347865</v>
+        <v>28.27372296392317</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3475,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -3506,16 +3508,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>318.3661739163114</v>
+        <v>202.5496269016834</v>
       </c>
       <c r="E38" t="n">
-        <v>361.4511511311439</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>361.4511511311439</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>361.4511511311439</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3560,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3579,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3633,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>82.26529954011225</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>207.9625118881446</v>
@@ -3648,7 +3650,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y39" t="n">
-        <v>177.5210747552478</v>
+        <v>48.92535853381431</v>
       </c>
     </row>
     <row r="40">
@@ -3706,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V40" t="n">
-        <v>53.03638470914545</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>1.761703922407231</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3740,13 +3742,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="E41" t="n">
-        <v>334.3122403248875</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3755,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3803,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>361.4511511311439</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>202.5496269016834</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>150.2783710965517</v>
+        <v>101.0602290075064</v>
       </c>
       <c r="C42" t="n">
         <v>149.1476881355087</v>
@@ -3867,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3882,10 +3884,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>140.0735557019427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V43" t="n">
-        <v>175.6983641828944</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>79.88764742793462</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3977,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>202.5496269016834</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4034,10 +4036,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4062,19 +4064,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>65.94734580728112</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4113,10 +4115,10 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4189,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>202.5496269016834</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>846.030747080189</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>760.996180350538</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>584.0123685494465</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>373.9492252280883</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>151.4092235991553</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>67.7841319991405</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>749.6387826185938</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>594.0056695211085</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>438.446857380311</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>281.120922593284</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>112.8668686927295</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>112.8668686927295</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>100.231919120994</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>264.3595589947938</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>450.6511373330579</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>633.8407713642671</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>796.5455384059751</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>916.4217041825536</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>482.9645045527716</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>588.7333491871505</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>438.0791187472427</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>307.990151368723</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>307.990151368723</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>276.1413663266751</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>740.5296836281118</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>100.231919120994</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>264.3595589947938</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>633.8407713642671</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>796.5455384059751</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>916.4217041825536</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="8">
@@ -4781,16 +4783,16 @@
         <v>881.8509868381266</v>
       </c>
       <c r="C8" t="n">
+        <v>881.8509868381266</v>
+      </c>
+      <c r="D8" t="n">
+        <v>881.8509868381266</v>
+      </c>
+      <c r="E8" t="n">
         <v>853.5854347311666</v>
       </c>
-      <c r="D8" t="n">
+      <c r="F8" t="n">
         <v>621.3016214603068</v>
-      </c>
-      <c r="E8" t="n">
-        <v>389.017808189447</v>
-      </c>
-      <c r="F8" t="n">
-        <v>389.017808189447</v>
       </c>
       <c r="G8" t="n">
         <v>389.017808189447</v>
@@ -4808,13 +4810,13 @@
         <v>163.0466509198802</v>
       </c>
       <c r="L8" t="n">
+        <v>163.0466509198802</v>
+      </c>
+      <c r="M8" t="n">
         <v>279.6756096381168</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>507.3369750248864</v>
-      </c>
-      <c r="N8" t="n">
-        <v>734.998340411656</v>
       </c>
       <c r="O8" t="n">
         <v>734.998340411656</v>
@@ -4857,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18.39687801105209</v>
+        <v>609.1998459095767</v>
       </c>
       <c r="C9" t="n">
-        <v>18.39687801105209</v>
+        <v>609.1998459095767</v>
       </c>
       <c r="D9" t="n">
-        <v>18.39687801105209</v>
+        <v>537.0196633326556</v>
       </c>
       <c r="E9" t="n">
-        <v>18.39687801105209</v>
+        <v>400.5731724435433</v>
       </c>
       <c r="F9" t="n">
-        <v>18.39687801105209</v>
+        <v>276.1413663266751</v>
       </c>
       <c r="G9" t="n">
-        <v>18.39687801105209</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="H9" t="n">
-        <v>18.39687801105209</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="I9" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J9" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K9" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L9" t="n">
-        <v>131.5118602307795</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="M9" t="n">
-        <v>359.1732256175491</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="N9" t="n">
-        <v>586.8345910043187</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="O9" t="n">
         <v>692.182535165835</v>
       </c>
       <c r="P9" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q9" t="n">
         <v>919.8439005526046</v>
@@ -4911,22 +4913,22 @@
         <v>760.996180350538</v>
       </c>
       <c r="T9" t="n">
-        <v>584.0123685494465</v>
+        <v>760.996180350538</v>
       </c>
       <c r="U9" t="n">
-        <v>373.9492252280883</v>
+        <v>760.996180350538</v>
       </c>
       <c r="V9" t="n">
-        <v>197.7110949355448</v>
+        <v>760.996180350538</v>
       </c>
       <c r="W9" t="n">
-        <v>197.7110949355448</v>
+        <v>760.996180350538</v>
       </c>
       <c r="X9" t="n">
-        <v>197.7110949355448</v>
+        <v>760.996180350538</v>
       </c>
       <c r="Y9" t="n">
-        <v>18.39687801105209</v>
+        <v>760.996180350538</v>
       </c>
     </row>
     <row r="10">
@@ -4984,22 +4986,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R10" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S10" t="n">
-        <v>593.126827367731</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T10" t="n">
-        <v>360.8430140968712</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U10" t="n">
-        <v>128.5592008260114</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="V10" t="n">
-        <v>18.39687801105209</v>
+        <v>455.276274010885</v>
       </c>
       <c r="W10" t="n">
-        <v>18.39687801105209</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="X10" t="n">
         <v>18.39687801105209</v>
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="C11" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="D11" t="n">
-        <v>853.5854347311666</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="E11" t="n">
+        <v>715.3374317791771</v>
+      </c>
+      <c r="F11" t="n">
         <v>621.3016214603068</v>
-      </c>
-      <c r="F11" t="n">
-        <v>389.017808189447</v>
       </c>
       <c r="G11" t="n">
         <v>389.017808189447</v>
@@ -5042,19 +5044,19 @@
         <v>163.0466509198802</v>
       </c>
       <c r="K11" t="n">
-        <v>163.0466509198802</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L11" t="n">
-        <v>163.0466509198802</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="M11" t="n">
-        <v>390.7080163066498</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N11" t="n">
-        <v>618.3693816934194</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O11" t="n">
-        <v>846.030747080189</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P11" t="n">
         <v>919.8439005526046</v>
@@ -5063,28 +5065,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R11" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S11" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="T11" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="U11" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="V11" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="W11" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="X11" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="Y11" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
     </row>
     <row r="12">
@@ -5121,16 +5123,16 @@
         <v>131.5118602307795</v>
       </c>
       <c r="K12" t="n">
-        <v>359.1732256175491</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="L12" t="n">
-        <v>359.1732256175491</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="M12" t="n">
+        <v>236.8598043922958</v>
+      </c>
+      <c r="N12" t="n">
         <v>464.5211697790654</v>
-      </c>
-      <c r="N12" t="n">
-        <v>692.182535165835</v>
       </c>
       <c r="O12" t="n">
         <v>692.182535165835</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C13" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D13" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E13" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F13" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G13" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H13" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I13" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J13" t="n">
         <v>18.39687801105209</v>
@@ -5206,7 +5208,7 @@
         <v>264.3595589947938</v>
       </c>
       <c r="M13" t="n">
-        <v>450.6511373330579</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N13" t="n">
         <v>633.8407713642671</v>
@@ -5233,16 +5235,16 @@
         <v>128.5592008260114</v>
       </c>
       <c r="V13" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="W13" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="X13" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y13" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="14">
@@ -5276,25 +5278,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J14" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K14" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="L14" t="n">
-        <v>246.0582433978217</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="M14" t="n">
-        <v>473.7196087845913</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="N14" t="n">
-        <v>701.380974171361</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8439005526046</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="P14" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q14" t="n">
         <v>919.8439005526046</v>
@@ -5306,19 +5308,19 @@
         <v>715.3374317791771</v>
       </c>
       <c r="T14" t="n">
-        <v>715.3374317791771</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="U14" t="n">
-        <v>715.3374317791771</v>
+        <v>259.553016067734</v>
       </c>
       <c r="V14" t="n">
-        <v>483.0536185083173</v>
+        <v>27.26920279687423</v>
       </c>
       <c r="W14" t="n">
-        <v>250.7698052374575</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="X14" t="n">
-        <v>18.48599196659774</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y14" t="n">
         <v>18.39687801105209</v>
@@ -5331,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>77.80929281110758</v>
+        <v>817.762861151083</v>
       </c>
       <c r="C15" t="n">
-        <v>77.80929281110758</v>
+        <v>667.1086307111752</v>
       </c>
       <c r="D15" t="n">
-        <v>77.80929281110758</v>
+        <v>537.0196633326556</v>
       </c>
       <c r="E15" t="n">
-        <v>77.80929281110758</v>
+        <v>400.5731724435433</v>
       </c>
       <c r="F15" t="n">
-        <v>77.80929281110758</v>
+        <v>276.1413663266751</v>
       </c>
       <c r="G15" t="n">
-        <v>77.80929281110758</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="H15" t="n">
         <v>67.7841319991405</v>
@@ -5361,19 +5363,19 @@
         <v>18.39687801105209</v>
       </c>
       <c r="L15" t="n">
-        <v>246.0582433978217</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="M15" t="n">
-        <v>246.0582433978217</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="N15" t="n">
         <v>246.0582433978217</v>
       </c>
       <c r="O15" t="n">
-        <v>473.7196087845913</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="P15" t="n">
-        <v>701.380974171361</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q15" t="n">
         <v>919.8439005526046</v>
@@ -5388,19 +5390,19 @@
         <v>919.8439005526046</v>
       </c>
       <c r="U15" t="n">
-        <v>709.7807572312464</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V15" t="n">
-        <v>487.2407556023135</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W15" t="n">
-        <v>257.1235097356004</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X15" t="n">
-        <v>257.1235097356004</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y15" t="n">
-        <v>77.80929281110758</v>
+        <v>919.8439005526046</v>
       </c>
     </row>
     <row r="16">
@@ -5495,16 +5497,16 @@
         <v>919.8439005526046</v>
       </c>
       <c r="D17" t="n">
-        <v>687.5600872817448</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="E17" t="n">
-        <v>455.276274010885</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="F17" t="n">
-        <v>222.9924607400252</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="G17" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="H17" t="n">
         <v>18.39687801105209</v>
@@ -5516,22 +5518,22 @@
         <v>163.0466509198802</v>
       </c>
       <c r="K17" t="n">
-        <v>163.0466509198802</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L17" t="n">
-        <v>163.0466509198802</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="M17" t="n">
-        <v>163.0466509198802</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N17" t="n">
-        <v>390.7080163066498</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O17" t="n">
-        <v>618.3693816934194</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P17" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q17" t="n">
         <v>919.8439005526046</v>
@@ -5592,22 +5594,22 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J18" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K18" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L18" t="n">
-        <v>359.1732256175491</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="M18" t="n">
-        <v>586.8345910043187</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N18" t="n">
-        <v>586.8345910043187</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O18" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P18" t="n">
         <v>919.8439005526046</v>
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>857.3829100686353</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="C20" t="n">
-        <v>464.2074085715658</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="D20" t="n">
-        <v>464.2074085715658</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E20" t="n">
-        <v>464.2074085715658</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F20" t="n">
-        <v>47.31297010154361</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G20" t="n">
-        <v>47.31297010154361</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H20" t="n">
-        <v>47.31297010154361</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I20" t="n">
-        <v>47.31297010154361</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J20" t="n">
-        <v>47.31297010154361</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K20" t="n">
-        <v>406.2953261290054</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L20" t="n">
-        <v>899.6156178475343</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="M20" t="n">
-        <v>1049.610128415868</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="N20" t="n">
-        <v>1577.42141205333</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="O20" t="n">
-        <v>2017.461012945658</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P20" t="n">
-        <v>2365.64850507718</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q20" t="n">
-        <v>2365.64850507718</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R20" t="n">
-        <v>2365.64850507718</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S20" t="n">
-        <v>2199.134950018231</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T20" t="n">
-        <v>1975.634347577648</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U20" t="n">
-        <v>1719.881618012246</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V20" t="n">
-        <v>1377.774808715765</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W20" t="n">
-        <v>1006.775773684052</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X20" t="n">
-        <v>857.3829100686353</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y20" t="n">
-        <v>857.3829100686353</v>
+        <v>687.5600872817448</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>846.6789532415751</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C21" t="n">
-        <v>696.0247228016672</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D21" t="n">
-        <v>565.9357554231476</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E21" t="n">
-        <v>429.4892645340353</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F21" t="n">
-        <v>305.057458417167</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G21" t="n">
-        <v>184.9976404890315</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H21" t="n">
-        <v>96.70022408963223</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I21" t="n">
-        <v>47.31297010154367</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J21" t="n">
-        <v>47.31297010154367</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K21" t="n">
-        <v>194.5661265746817</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L21" t="n">
-        <v>678.132212472995</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="M21" t="n">
-        <v>1263.630217479597</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N21" t="n">
-        <v>1849.128222486199</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O21" t="n">
-        <v>2365.64850507718</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P21" t="n">
-        <v>2365.64850507718</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q21" t="n">
-        <v>2365.64850507718</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R21" t="n">
-        <v>2341.731461975245</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S21" t="n">
-        <v>2206.800784875114</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T21" t="n">
-        <v>2029.816973074022</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U21" t="n">
-        <v>1819.753829752664</v>
+        <v>839.6754200811793</v>
       </c>
       <c r="V21" t="n">
-        <v>1597.213828123731</v>
+        <v>617.1354184522463</v>
       </c>
       <c r="W21" t="n">
-        <v>1367.096582257017</v>
+        <v>387.0181725855332</v>
       </c>
       <c r="X21" t="n">
-        <v>1177.789504607029</v>
+        <v>197.7110949355448</v>
       </c>
       <c r="Y21" t="n">
-        <v>998.4752876825364</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1723.248102985505</v>
+        <v>511.5238206779467</v>
       </c>
       <c r="C22" t="n">
-        <v>1723.248102985505</v>
+        <v>341.3187027439359</v>
       </c>
       <c r="D22" t="n">
-        <v>1723.248102985505</v>
+        <v>185.6855896464506</v>
       </c>
       <c r="E22" t="n">
-        <v>1723.248102985505</v>
+        <v>185.6855896464506</v>
       </c>
       <c r="F22" t="n">
-        <v>1723.248102985505</v>
+        <v>185.6855896464506</v>
       </c>
       <c r="G22" t="n">
-        <v>1650.058303748032</v>
+        <v>185.6855896464506</v>
       </c>
       <c r="H22" t="n">
-        <v>1494.579752709526</v>
+        <v>151.4913033739742</v>
       </c>
       <c r="I22" t="n">
-        <v>1494.579752709526</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J22" t="n">
-        <v>1464.201482535628</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K22" t="n">
-        <v>1546.036523645569</v>
+        <v>100.231919120994</v>
       </c>
       <c r="L22" t="n">
-        <v>1710.164163519369</v>
+        <v>264.3595589947938</v>
       </c>
       <c r="M22" t="n">
-        <v>1896.455741857633</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N22" t="n">
-        <v>2079.645375888842</v>
+        <v>633.8407713642671</v>
       </c>
       <c r="O22" t="n">
-        <v>2242.350142930551</v>
+        <v>796.5455384059751</v>
       </c>
       <c r="P22" t="n">
-        <v>2362.226308707129</v>
+        <v>916.4217041825536</v>
       </c>
       <c r="Q22" t="n">
-        <v>2365.64850507718</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R22" t="n">
-        <v>2365.64850507718</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S22" t="n">
-        <v>2365.64850507718</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T22" t="n">
-        <v>2365.64850507718</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U22" t="n">
-        <v>2365.64850507718</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V22" t="n">
-        <v>2365.64850507718</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W22" t="n">
-        <v>2365.64850507718</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X22" t="n">
-        <v>2131.568182860163</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y22" t="n">
-        <v>1908.456121676807</v>
+        <v>696.731839369248</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1190.873983888531</v>
+        <v>1439.193055393812</v>
       </c>
       <c r="C23" t="n">
-        <v>1190.873983888531</v>
+        <v>1269.434474887579</v>
       </c>
       <c r="D23" t="n">
-        <v>1190.873983888531</v>
+        <v>1269.434474887579</v>
       </c>
       <c r="E23" t="n">
-        <v>788.2904590050753</v>
+        <v>866.8509500041232</v>
       </c>
       <c r="F23" t="n">
-        <v>371.396020535053</v>
+        <v>449.956511534101</v>
       </c>
       <c r="G23" t="n">
-        <v>371.396020535053</v>
+        <v>36.79375602210418</v>
       </c>
       <c r="H23" t="n">
-        <v>47.31297010154361</v>
+        <v>36.79375602210418</v>
       </c>
       <c r="I23" t="n">
-        <v>47.31297010154361</v>
+        <v>36.79375602210418</v>
       </c>
       <c r="J23" t="n">
-        <v>191.9627430103717</v>
+        <v>181.4435289309323</v>
       </c>
       <c r="K23" t="n">
-        <v>191.9627430103717</v>
+        <v>181.4435289309323</v>
       </c>
       <c r="L23" t="n">
-        <v>666.9511603618604</v>
+        <v>181.4435289309323</v>
       </c>
       <c r="M23" t="n">
-        <v>1212.952060406441</v>
+        <v>596.1379773078197</v>
       </c>
       <c r="N23" t="n">
-        <v>1740.763344043903</v>
+        <v>1051.460708081359</v>
       </c>
       <c r="O23" t="n">
-        <v>2180.802944936232</v>
+        <v>1491.500308973687</v>
       </c>
       <c r="P23" t="n">
-        <v>2180.802944936232</v>
+        <v>1839.687801105209</v>
       </c>
       <c r="Q23" t="n">
-        <v>2365.64850507718</v>
+        <v>1839.687801105209</v>
       </c>
       <c r="R23" t="n">
-        <v>2327.655591362702</v>
+        <v>1839.687801105209</v>
       </c>
       <c r="S23" t="n">
-        <v>2161.142036303753</v>
+        <v>1839.687801105209</v>
       </c>
       <c r="T23" t="n">
-        <v>2161.142036303753</v>
+        <v>1839.687801105209</v>
       </c>
       <c r="U23" t="n">
-        <v>1951.325623987187</v>
+        <v>1839.687801105209</v>
       </c>
       <c r="V23" t="n">
-        <v>1951.325623987187</v>
+        <v>1839.687801105209</v>
       </c>
       <c r="W23" t="n">
-        <v>1580.326588955474</v>
+        <v>1839.687801105209</v>
       </c>
       <c r="X23" t="n">
-        <v>1190.873983888531</v>
+        <v>1839.687801105209</v>
       </c>
       <c r="Y23" t="n">
-        <v>1190.873983888531</v>
+        <v>1839.687801105209</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>846.6789532415751</v>
+        <v>344.6352923715398</v>
       </c>
       <c r="C24" t="n">
-        <v>696.0247228016672</v>
+        <v>193.981061931632</v>
       </c>
       <c r="D24" t="n">
-        <v>565.9357554231476</v>
+        <v>173.2402469112165</v>
       </c>
       <c r="E24" t="n">
-        <v>429.4892645340353</v>
+        <v>36.79375602210418</v>
       </c>
       <c r="F24" t="n">
-        <v>305.057458417167</v>
+        <v>36.79375602210418</v>
       </c>
       <c r="G24" t="n">
-        <v>184.9976404890315</v>
+        <v>36.79375602210418</v>
       </c>
       <c r="H24" t="n">
-        <v>96.70022408963223</v>
+        <v>36.79375602210418</v>
       </c>
       <c r="I24" t="n">
-        <v>47.31297010154367</v>
+        <v>36.79375602210418</v>
       </c>
       <c r="J24" t="n">
-        <v>160.4279523212711</v>
+        <v>36.79375602210418</v>
       </c>
       <c r="K24" t="n">
-        <v>160.4279523212711</v>
+        <v>36.79375602210418</v>
       </c>
       <c r="L24" t="n">
-        <v>160.4279523212711</v>
+        <v>492.1164867956434</v>
       </c>
       <c r="M24" t="n">
-        <v>623.6437572083089</v>
+        <v>744.378610060382</v>
       </c>
       <c r="N24" t="n">
-        <v>1209.141762214911</v>
+        <v>744.378610060382</v>
       </c>
       <c r="O24" t="n">
-        <v>1725.662044805892</v>
+        <v>1199.701340833921</v>
       </c>
       <c r="P24" t="n">
-        <v>2131.28341352229</v>
+        <v>1605.322709550319</v>
       </c>
       <c r="Q24" t="n">
-        <v>2365.64850507718</v>
+        <v>1839.687801105209</v>
       </c>
       <c r="R24" t="n">
-        <v>2341.731461975245</v>
+        <v>1839.687801105209</v>
       </c>
       <c r="S24" t="n">
-        <v>2206.800784875114</v>
+        <v>1704.757124005078</v>
       </c>
       <c r="T24" t="n">
-        <v>2029.816973074022</v>
+        <v>1527.773312203987</v>
       </c>
       <c r="U24" t="n">
-        <v>1819.753829752664</v>
+        <v>1317.710168882628</v>
       </c>
       <c r="V24" t="n">
-        <v>1597.213828123731</v>
+        <v>1095.170167253695</v>
       </c>
       <c r="W24" t="n">
-        <v>1367.096582257017</v>
+        <v>865.0529213869822</v>
       </c>
       <c r="X24" t="n">
-        <v>1177.789504607029</v>
+        <v>675.7458437369939</v>
       </c>
       <c r="Y24" t="n">
-        <v>998.4752876825364</v>
+        <v>496.4316268125012</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1790.039713567123</v>
+        <v>735.4246947462059</v>
       </c>
       <c r="C25" t="n">
-        <v>1619.834595633113</v>
+        <v>735.4246947462059</v>
       </c>
       <c r="D25" t="n">
-        <v>1464.201482535628</v>
+        <v>735.4246947462059</v>
       </c>
       <c r="E25" t="n">
-        <v>1464.201482535628</v>
+        <v>579.8658826054084</v>
       </c>
       <c r="F25" t="n">
-        <v>1464.201482535628</v>
+        <v>422.5399478183813</v>
       </c>
       <c r="G25" t="n">
-        <v>1464.201482535628</v>
+        <v>254.2858939178269</v>
       </c>
       <c r="H25" t="n">
-        <v>1464.201482535628</v>
+        <v>98.80734287932086</v>
       </c>
       <c r="I25" t="n">
-        <v>1464.201482535628</v>
+        <v>67.17202619600224</v>
       </c>
       <c r="J25" t="n">
-        <v>1464.201482535628</v>
+        <v>36.79375602210418</v>
       </c>
       <c r="K25" t="n">
-        <v>1546.036523645569</v>
+        <v>118.6287971320461</v>
       </c>
       <c r="L25" t="n">
-        <v>1710.164163519369</v>
+        <v>282.7564370058458</v>
       </c>
       <c r="M25" t="n">
-        <v>1896.455741857633</v>
+        <v>469.0480153441099</v>
       </c>
       <c r="N25" t="n">
-        <v>2079.645375888842</v>
+        <v>652.2376493753191</v>
       </c>
       <c r="O25" t="n">
-        <v>2242.350142930551</v>
+        <v>814.9424164170271</v>
       </c>
       <c r="P25" t="n">
-        <v>2362.226308707129</v>
+        <v>934.8185821936056</v>
       </c>
       <c r="Q25" t="n">
-        <v>2365.64850507718</v>
+        <v>938.2407785636566</v>
       </c>
       <c r="R25" t="n">
-        <v>2248.870826582246</v>
+        <v>938.2407785636566</v>
       </c>
       <c r="S25" t="n">
-        <v>2248.870826582246</v>
+        <v>735.4246947462059</v>
       </c>
       <c r="T25" t="n">
-        <v>2013.15177475048</v>
+        <v>735.4246947462059</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.15177475048</v>
+        <v>735.4246947462059</v>
       </c>
       <c r="V25" t="n">
-        <v>2013.15177475048</v>
+        <v>735.4246947462059</v>
       </c>
       <c r="W25" t="n">
-        <v>2013.15177475048</v>
+        <v>735.4246947462059</v>
       </c>
       <c r="X25" t="n">
-        <v>2013.15177475048</v>
+        <v>735.4246947462059</v>
       </c>
       <c r="Y25" t="n">
-        <v>1790.039713567123</v>
+        <v>735.4246947462059</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1281.393958586371</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C26" t="n">
-        <v>888.2184570893016</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D26" t="n">
-        <v>888.2184570893016</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E26" t="n">
-        <v>485.6349322058462</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F26" t="n">
-        <v>485.6349322058462</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G26" t="n">
-        <v>485.6349322058462</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H26" t="n">
-        <v>185.6500870090788</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I26" t="n">
-        <v>47.31297010154361</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J26" t="n">
-        <v>191.9627430103717</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K26" t="n">
-        <v>191.9627430103717</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L26" t="n">
-        <v>685.2830347289006</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="M26" t="n">
-        <v>864.7645682749193</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="N26" t="n">
-        <v>1392.575851912381</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O26" t="n">
-        <v>1832.61545280471</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P26" t="n">
-        <v>2180.802944936232</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q26" t="n">
-        <v>2365.64850507718</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R26" t="n">
-        <v>2327.655591362702</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S26" t="n">
-        <v>2161.142036303753</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T26" t="n">
-        <v>1937.641433863169</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U26" t="n">
-        <v>1681.888704297768</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V26" t="n">
-        <v>1681.888704297768</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W26" t="n">
-        <v>1681.888704297768</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="X26" t="n">
-        <v>1681.888704297768</v>
+        <v>455.276274010885</v>
       </c>
       <c r="Y26" t="n">
-        <v>1681.888704297768</v>
+        <v>222.9924607400252</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>846.6789532415746</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C27" t="n">
-        <v>696.0247228016668</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D27" t="n">
-        <v>565.9357554231472</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E27" t="n">
-        <v>429.4892645340348</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F27" t="n">
-        <v>305.0574584171666</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G27" t="n">
-        <v>184.9976404890311</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H27" t="n">
-        <v>96.70022408963202</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I27" t="n">
-        <v>47.31297010154361</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J27" t="n">
-        <v>47.31297010154361</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K27" t="n">
-        <v>47.31297010154361</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="L27" t="n">
-        <v>530.8790559998569</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="M27" t="n">
-        <v>1116.377061006459</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="N27" t="n">
-        <v>1701.875066013061</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="O27" t="n">
-        <v>2218.395348604042</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P27" t="n">
-        <v>2365.64850507718</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q27" t="n">
-        <v>2365.64850507718</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R27" t="n">
-        <v>2341.731461975244</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S27" t="n">
-        <v>2206.800784875113</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T27" t="n">
-        <v>2029.816973074021</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U27" t="n">
-        <v>1819.753829752663</v>
+        <v>709.7807572312464</v>
       </c>
       <c r="V27" t="n">
-        <v>1597.21382812373</v>
+        <v>487.2407556023135</v>
       </c>
       <c r="W27" t="n">
-        <v>1367.096582257017</v>
+        <v>257.1235097356004</v>
       </c>
       <c r="X27" t="n">
-        <v>1177.789504607029</v>
+        <v>67.81643208561201</v>
       </c>
       <c r="Y27" t="n">
-        <v>998.475287682536</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>948.7599926430961</v>
+        <v>696.731839369248</v>
       </c>
       <c r="C28" t="n">
-        <v>778.5548747090853</v>
+        <v>696.731839369248</v>
       </c>
       <c r="D28" t="n">
-        <v>778.5548747090853</v>
+        <v>696.731839369248</v>
       </c>
       <c r="E28" t="n">
-        <v>691.8442053644512</v>
+        <v>662.9281132739598</v>
       </c>
       <c r="F28" t="n">
-        <v>534.5182705774242</v>
+        <v>505.6021784869328</v>
       </c>
       <c r="G28" t="n">
-        <v>366.2642166768698</v>
+        <v>337.3481245863783</v>
       </c>
       <c r="H28" t="n">
-        <v>210.7856656383638</v>
+        <v>181.8695735478723</v>
       </c>
       <c r="I28" t="n">
-        <v>77.69124027544166</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="J28" t="n">
-        <v>47.31297010154361</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K28" t="n">
-        <v>129.1480112114855</v>
+        <v>100.231919120994</v>
       </c>
       <c r="L28" t="n">
-        <v>293.2756510852853</v>
+        <v>264.3595589947938</v>
       </c>
       <c r="M28" t="n">
-        <v>479.5672294235493</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N28" t="n">
-        <v>662.7568634547586</v>
+        <v>633.8407713642671</v>
       </c>
       <c r="O28" t="n">
-        <v>825.4616304964666</v>
+        <v>796.5455384059751</v>
       </c>
       <c r="P28" t="n">
-        <v>945.3377962730451</v>
+        <v>916.4217041825536</v>
       </c>
       <c r="Q28" t="n">
-        <v>948.7599926430961</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R28" t="n">
-        <v>948.7599926430961</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S28" t="n">
-        <v>948.7599926430961</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T28" t="n">
-        <v>948.7599926430961</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U28" t="n">
-        <v>948.7599926430961</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V28" t="n">
-        <v>948.7599926430961</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W28" t="n">
-        <v>948.7599926430961</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X28" t="n">
-        <v>948.7599926430961</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y28" t="n">
-        <v>948.7599926430961</v>
+        <v>696.731839369248</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1886.395173071196</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="C29" t="n">
-        <v>1493.219671574126</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="D29" t="n">
-        <v>1279.953688967018</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="E29" t="n">
-        <v>877.3701640835627</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F29" t="n">
-        <v>460.4757256135405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G29" t="n">
-        <v>47.31297010154361</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H29" t="n">
-        <v>47.31297010154361</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I29" t="n">
-        <v>47.31297010154361</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J29" t="n">
-        <v>191.9627430103717</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K29" t="n">
-        <v>550.9450990378335</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="L29" t="n">
-        <v>1044.265390756362</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="M29" t="n">
-        <v>1392.575851912381</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="N29" t="n">
-        <v>1392.575851912381</v>
+        <v>701.380974171361</v>
       </c>
       <c r="O29" t="n">
-        <v>1832.61545280471</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P29" t="n">
-        <v>2180.802944936232</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q29" t="n">
-        <v>2365.64850507718</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R29" t="n">
-        <v>2365.64850507718</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S29" t="n">
-        <v>2365.64850507718</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T29" t="n">
-        <v>2142.147902636597</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U29" t="n">
-        <v>1886.395173071196</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V29" t="n">
-        <v>1886.395173071196</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W29" t="n">
-        <v>1886.395173071196</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X29" t="n">
-        <v>1886.395173071196</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y29" t="n">
-        <v>1886.395173071196</v>
+        <v>715.2483178236314</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>846.6789532415753</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C30" t="n">
-        <v>696.0247228016675</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D30" t="n">
-        <v>565.9357554231478</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E30" t="n">
-        <v>429.4892645340356</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F30" t="n">
-        <v>305.0574584171674</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G30" t="n">
-        <v>184.9976404890318</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H30" t="n">
-        <v>96.70022408963275</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I30" t="n">
-        <v>47.31297010154361</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J30" t="n">
-        <v>160.427952321271</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K30" t="n">
-        <v>480.1670983834974</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="L30" t="n">
-        <v>963.7331842818107</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="M30" t="n">
-        <v>1549.231189288413</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N30" t="n">
-        <v>1725.662044805892</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O30" t="n">
-        <v>1725.662044805892</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P30" t="n">
-        <v>2131.28341352229</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q30" t="n">
-        <v>2365.64850507718</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R30" t="n">
-        <v>2341.731461975245</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S30" t="n">
-        <v>2206.800784875114</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T30" t="n">
-        <v>2029.816973074022</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U30" t="n">
-        <v>1819.753829752664</v>
+        <v>709.7807572312464</v>
       </c>
       <c r="V30" t="n">
-        <v>1597.213828123731</v>
+        <v>487.2407556023135</v>
       </c>
       <c r="W30" t="n">
-        <v>1367.096582257018</v>
+        <v>257.1235097356004</v>
       </c>
       <c r="X30" t="n">
-        <v>1177.789504607029</v>
+        <v>67.81643208561201</v>
       </c>
       <c r="Y30" t="n">
-        <v>998.4752876825366</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1859.206041825001</v>
+        <v>370.0147661843744</v>
       </c>
       <c r="C31" t="n">
-        <v>1689.00092389099</v>
+        <v>359.9670734232329</v>
       </c>
       <c r="D31" t="n">
-        <v>1533.367810793505</v>
+        <v>204.3339603257476</v>
       </c>
       <c r="E31" t="n">
-        <v>1494.579752709526</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="F31" t="n">
-        <v>1494.579752709526</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="G31" t="n">
-        <v>1494.579752709526</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="H31" t="n">
-        <v>1494.579752709526</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="I31" t="n">
-        <v>1494.579752709526</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="J31" t="n">
-        <v>1464.201482535628</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K31" t="n">
-        <v>1546.036523645569</v>
+        <v>100.231919120994</v>
       </c>
       <c r="L31" t="n">
-        <v>1710.164163519369</v>
+        <v>264.3595589947938</v>
       </c>
       <c r="M31" t="n">
-        <v>1896.455741857633</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N31" t="n">
-        <v>2079.645375888842</v>
+        <v>633.8407713642671</v>
       </c>
       <c r="O31" t="n">
-        <v>2242.350142930551</v>
+        <v>796.5455384059751</v>
       </c>
       <c r="P31" t="n">
-        <v>2362.226308707129</v>
+        <v>916.4217041825536</v>
       </c>
       <c r="Q31" t="n">
-        <v>2365.64850507718</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R31" t="n">
-        <v>2365.64850507718</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S31" t="n">
-        <v>2365.64850507718</v>
+        <v>593.126827367731</v>
       </c>
       <c r="T31" t="n">
-        <v>2365.64850507718</v>
+        <v>593.126827367731</v>
       </c>
       <c r="U31" t="n">
-        <v>2365.64850507718</v>
+        <v>593.126827367731</v>
       </c>
       <c r="V31" t="n">
-        <v>2365.64850507718</v>
+        <v>593.126827367731</v>
       </c>
       <c r="W31" t="n">
-        <v>2082.318103008358</v>
+        <v>593.126827367731</v>
       </c>
       <c r="X31" t="n">
-        <v>2082.318103008358</v>
+        <v>593.126827367731</v>
       </c>
       <c r="Y31" t="n">
-        <v>1859.206041825001</v>
+        <v>370.0147661843744</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>394.0182649502328</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="C32" t="n">
-        <v>28.91609209049151</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="D32" t="n">
-        <v>28.91609209049151</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="E32" t="n">
-        <v>28.91609209049151</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="F32" t="n">
-        <v>28.91609209049151</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="G32" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H32" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I32" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J32" t="n">
-        <v>173.5658649993196</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K32" t="n">
-        <v>173.5658649993196</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L32" t="n">
-        <v>531.4025046191521</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="M32" t="n">
-        <v>554.9349126322728</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="N32" t="n">
-        <v>554.9349126322728</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="O32" t="n">
-        <v>912.7715522521053</v>
+        <v>734.998340411656</v>
       </c>
       <c r="P32" t="n">
-        <v>1260.959044383627</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q32" t="n">
-        <v>1445.804604524576</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R32" t="n">
-        <v>1445.804604524576</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S32" t="n">
-        <v>1445.804604524576</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T32" t="n">
-        <v>1445.804604524576</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U32" t="n">
-        <v>1445.804604524576</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V32" t="n">
-        <v>1445.804604524576</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W32" t="n">
-        <v>1445.804604524576</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X32" t="n">
-        <v>1124.222610669716</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y32" t="n">
-        <v>759.1204378099742</v>
+        <v>919.8439005526046</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>179.5703225303993</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C33" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D33" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E33" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F33" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G33" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H33" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I33" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J33" t="n">
-        <v>142.0310743102189</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K33" t="n">
-        <v>461.7702203724454</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="L33" t="n">
-        <v>819.6068599922778</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="M33" t="n">
-        <v>1177.44349961211</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="N33" t="n">
-        <v>1211.439512969685</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="O33" t="n">
-        <v>1211.439512969685</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="P33" t="n">
-        <v>1211.439512969685</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q33" t="n">
-        <v>1445.804604524576</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R33" t="n">
-        <v>1445.804604524576</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S33" t="n">
-        <v>1445.804604524576</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T33" t="n">
-        <v>1362.708342362846</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U33" t="n">
-        <v>1152.645199041488</v>
+        <v>709.7807572312464</v>
       </c>
       <c r="V33" t="n">
-        <v>930.1051974125548</v>
+        <v>487.2407556023135</v>
       </c>
       <c r="W33" t="n">
-        <v>699.9879515458417</v>
+        <v>257.1235097356004</v>
       </c>
       <c r="X33" t="n">
-        <v>510.6808738958534</v>
+        <v>67.81643208561201</v>
       </c>
       <c r="Y33" t="n">
-        <v>331.3666569713606</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1037.484524649918</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="C34" t="n">
-        <v>867.2794067159068</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="D34" t="n">
-        <v>711.6462936184216</v>
+        <v>818.4869254147573</v>
       </c>
       <c r="E34" t="n">
-        <v>556.0874814776241</v>
+        <v>662.9281132739598</v>
       </c>
       <c r="F34" t="n">
-        <v>544.3575819830232</v>
+        <v>505.6021784869328</v>
       </c>
       <c r="G34" t="n">
-        <v>544.3575819830232</v>
+        <v>337.3481245863783</v>
       </c>
       <c r="H34" t="n">
-        <v>544.3575819830232</v>
+        <v>181.8695735478723</v>
       </c>
       <c r="I34" t="n">
-        <v>544.3575819830232</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="J34" t="n">
-        <v>544.3575819830232</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K34" t="n">
-        <v>626.1926230929652</v>
+        <v>100.231919120994</v>
       </c>
       <c r="L34" t="n">
-        <v>790.320262966765</v>
+        <v>264.3595589947938</v>
       </c>
       <c r="M34" t="n">
-        <v>976.611841305029</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N34" t="n">
-        <v>1159.801475336238</v>
+        <v>633.8407713642671</v>
       </c>
       <c r="O34" t="n">
-        <v>1322.506242377946</v>
+        <v>796.5455384059751</v>
       </c>
       <c r="P34" t="n">
-        <v>1442.382408154525</v>
+        <v>916.4217041825536</v>
       </c>
       <c r="Q34" t="n">
-        <v>1445.804604524576</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R34" t="n">
-        <v>1445.804604524576</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S34" t="n">
-        <v>1445.804604524576</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T34" t="n">
-        <v>1445.804604524576</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U34" t="n">
-        <v>1445.804604524576</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V34" t="n">
-        <v>1445.804604524576</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W34" t="n">
-        <v>1445.804604524576</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X34" t="n">
-        <v>1445.804604524576</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y34" t="n">
-        <v>1222.692543341219</v>
+        <v>919.8439005526046</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1124.222610669716</v>
+        <v>455.276274010885</v>
       </c>
       <c r="C35" t="n">
-        <v>1124.222610669716</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="D35" t="n">
-        <v>1124.222610669716</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E35" t="n">
-        <v>759.1204378099742</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F35" t="n">
-        <v>394.0182649502328</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G35" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H35" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I35" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J35" t="n">
-        <v>173.5658649993196</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K35" t="n">
-        <v>173.5658649993196</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L35" t="n">
-        <v>531.4025046191521</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="M35" t="n">
-        <v>889.2391442389845</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N35" t="n">
-        <v>1097.617112393054</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O35" t="n">
-        <v>1097.617112393054</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P35" t="n">
-        <v>1445.804604524576</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q35" t="n">
-        <v>1445.804604524576</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R35" t="n">
-        <v>1445.804604524576</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S35" t="n">
-        <v>1445.804604524576</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T35" t="n">
-        <v>1379.975340235117</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U35" t="n">
-        <v>1124.222610669716</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V35" t="n">
-        <v>1124.222610669716</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W35" t="n">
-        <v>1124.222610669716</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X35" t="n">
-        <v>1124.222610669716</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="Y35" t="n">
-        <v>1124.222610669716</v>
+        <v>687.5600872817448</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>102.5484302318674</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C36" t="n">
-        <v>102.5484302318674</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D36" t="n">
-        <v>102.5484302318674</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E36" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F36" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G36" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H36" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I36" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J36" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K36" t="n">
-        <v>28.91609209049151</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="L36" t="n">
-        <v>386.752731710324</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="M36" t="n">
-        <v>730.1313252849105</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N36" t="n">
-        <v>730.1313252849105</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="O36" t="n">
-        <v>1087.967964904743</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P36" t="n">
-        <v>1445.804604524576</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q36" t="n">
-        <v>1445.804604524576</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R36" t="n">
-        <v>1445.804604524576</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S36" t="n">
-        <v>1310.873927424444</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T36" t="n">
-        <v>1133.890115623353</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U36" t="n">
-        <v>923.8269723019946</v>
+        <v>709.7807572312464</v>
       </c>
       <c r="V36" t="n">
-        <v>701.2869706730617</v>
+        <v>487.2407556023135</v>
       </c>
       <c r="W36" t="n">
-        <v>471.1697248063485</v>
+        <v>257.1235097356004</v>
       </c>
       <c r="X36" t="n">
-        <v>281.8626471563602</v>
+        <v>67.81643208561201</v>
       </c>
       <c r="Y36" t="n">
-        <v>102.5484302318674</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>143.2259258630032</v>
+        <v>46.95619413622708</v>
       </c>
       <c r="C37" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105217</v>
       </c>
       <c r="D37" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105217</v>
       </c>
       <c r="E37" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105217</v>
       </c>
       <c r="F37" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105217</v>
       </c>
       <c r="G37" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105217</v>
       </c>
       <c r="H37" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105217</v>
       </c>
       <c r="I37" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105217</v>
       </c>
       <c r="J37" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105217</v>
       </c>
       <c r="K37" t="n">
-        <v>110.7511332004334</v>
+        <v>100.231919120994</v>
       </c>
       <c r="L37" t="n">
-        <v>274.8787730742332</v>
+        <v>264.3595589947938</v>
       </c>
       <c r="M37" t="n">
-        <v>461.1703514124972</v>
+        <v>450.6511373330579</v>
       </c>
       <c r="N37" t="n">
-        <v>644.3599854437064</v>
+        <v>633.8407713642671</v>
       </c>
       <c r="O37" t="n">
-        <v>807.0647524854144</v>
+        <v>796.5455384059751</v>
       </c>
       <c r="P37" t="n">
-        <v>926.9409182619929</v>
+        <v>916.4217041825536</v>
       </c>
       <c r="Q37" t="n">
-        <v>930.3631146320439</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R37" t="n">
-        <v>930.3631146320439</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S37" t="n">
-        <v>930.3631146320439</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T37" t="n">
-        <v>694.644062800278</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U37" t="n">
-        <v>409.2052710421789</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V37" t="n">
-        <v>143.2259258630032</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W37" t="n">
-        <v>143.2259258630032</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="X37" t="n">
-        <v>143.2259258630032</v>
+        <v>455.276274010885</v>
       </c>
       <c r="Y37" t="n">
-        <v>143.2259258630032</v>
+        <v>232.1642128275284</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1445.804604524576</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="C38" t="n">
-        <v>1445.804604524576</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="D38" t="n">
-        <v>1124.222610669716</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E38" t="n">
-        <v>759.1204378099742</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F38" t="n">
-        <v>394.0182649502328</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G38" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H38" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I38" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J38" t="n">
-        <v>173.5658649993196</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K38" t="n">
-        <v>173.5658649993196</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="L38" t="n">
-        <v>531.4025046191521</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="M38" t="n">
-        <v>730.1313252849105</v>
+        <v>734.998340411656</v>
       </c>
       <c r="N38" t="n">
-        <v>1087.967964904743</v>
+        <v>734.998340411656</v>
       </c>
       <c r="O38" t="n">
-        <v>1445.804604524576</v>
+        <v>734.998340411656</v>
       </c>
       <c r="P38" t="n">
-        <v>1445.804604524576</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q38" t="n">
-        <v>1445.804604524576</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R38" t="n">
-        <v>1445.804604524576</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S38" t="n">
-        <v>1445.804604524576</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T38" t="n">
-        <v>1445.804604524576</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U38" t="n">
-        <v>1445.804604524576</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V38" t="n">
-        <v>1445.804604524576</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="W38" t="n">
-        <v>1445.804604524576</v>
+        <v>455.276274010885</v>
       </c>
       <c r="X38" t="n">
-        <v>1445.804604524576</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="Y38" t="n">
-        <v>1445.804604524576</v>
+        <v>222.9924607400252</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>179.5703225303993</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C39" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D39" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E39" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F39" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G39" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H39" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I39" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J39" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K39" t="n">
-        <v>28.91609209049151</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="L39" t="n">
-        <v>386.752731710324</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="M39" t="n">
-        <v>744.5893713301564</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="N39" t="n">
-        <v>853.6028733498525</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="O39" t="n">
-        <v>1211.439512969685</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="P39" t="n">
-        <v>1211.439512969685</v>
+        <v>701.380974171361</v>
       </c>
       <c r="Q39" t="n">
-        <v>1445.804604524576</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R39" t="n">
-        <v>1445.804604524576</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S39" t="n">
-        <v>1445.804604524576</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T39" t="n">
-        <v>1362.708342362846</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U39" t="n">
-        <v>1152.645199041488</v>
+        <v>709.7807572312464</v>
       </c>
       <c r="V39" t="n">
-        <v>930.1051974125548</v>
+        <v>487.2407556023135</v>
       </c>
       <c r="W39" t="n">
-        <v>699.9879515458417</v>
+        <v>257.1235097356004</v>
       </c>
       <c r="X39" t="n">
-        <v>510.6808738958534</v>
+        <v>67.81643208561201</v>
       </c>
       <c r="Y39" t="n">
-        <v>331.3666569713606</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>544.3575819830232</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C40" t="n">
-        <v>544.3575819830232</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D40" t="n">
-        <v>544.3575819830232</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E40" t="n">
-        <v>544.3575819830232</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F40" t="n">
-        <v>544.3575819830232</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G40" t="n">
-        <v>544.3575819830232</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H40" t="n">
-        <v>544.3575819830232</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I40" t="n">
-        <v>544.3575819830232</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J40" t="n">
-        <v>544.3575819830232</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K40" t="n">
-        <v>626.1926230929652</v>
+        <v>100.231919120994</v>
       </c>
       <c r="L40" t="n">
-        <v>790.320262966765</v>
+        <v>264.3595589947938</v>
       </c>
       <c r="M40" t="n">
-        <v>976.611841305029</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N40" t="n">
-        <v>1159.801475336238</v>
+        <v>633.8407713642671</v>
       </c>
       <c r="O40" t="n">
-        <v>1322.506242377946</v>
+        <v>796.5455384059751</v>
       </c>
       <c r="P40" t="n">
-        <v>1442.382408154525</v>
+        <v>916.4217041825536</v>
       </c>
       <c r="Q40" t="n">
-        <v>1445.804604524576</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R40" t="n">
-        <v>1321.903615157152</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S40" t="n">
-        <v>1119.087531339702</v>
+        <v>717.0278167351539</v>
       </c>
       <c r="T40" t="n">
-        <v>883.3684795079359</v>
+        <v>484.7440034642941</v>
       </c>
       <c r="U40" t="n">
-        <v>597.9296877498368</v>
+        <v>252.4601901934343</v>
       </c>
       <c r="V40" t="n">
-        <v>544.3575819830232</v>
+        <v>20.17637692257455</v>
       </c>
       <c r="W40" t="n">
-        <v>544.3575819830232</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="X40" t="n">
-        <v>544.3575819830232</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y40" t="n">
-        <v>544.3575819830232</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>690.6882741653014</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="C41" t="n">
-        <v>690.6882741653014</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="D41" t="n">
-        <v>690.6882741653014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E41" t="n">
-        <v>352.9991425240009</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F41" t="n">
-        <v>352.9991425240009</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G41" t="n">
-        <v>352.9991425240009</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H41" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I41" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J41" t="n">
-        <v>173.5658649993196</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K41" t="n">
-        <v>531.4025046191521</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="L41" t="n">
-        <v>889.2391442389845</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="M41" t="n">
-        <v>1247.075783858817</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="N41" t="n">
-        <v>1445.804604524576</v>
+        <v>846.030747080189</v>
       </c>
       <c r="O41" t="n">
-        <v>1445.804604524576</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P41" t="n">
-        <v>1445.804604524576</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q41" t="n">
-        <v>1445.804604524576</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R41" t="n">
-        <v>1445.804604524576</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S41" t="n">
-        <v>1279.291049465626</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T41" t="n">
-        <v>1055.790447025043</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U41" t="n">
-        <v>1055.790447025043</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="V41" t="n">
-        <v>1055.790447025043</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="W41" t="n">
-        <v>1055.790447025043</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="X41" t="n">
-        <v>690.6882741653014</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="Y41" t="n">
-        <v>690.6882741653014</v>
+        <v>482.9645045527716</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>828.2820752305224</v>
+        <v>817.762861151083</v>
       </c>
       <c r="C42" t="n">
-        <v>677.6278447906146</v>
+        <v>667.1086307111752</v>
       </c>
       <c r="D42" t="n">
-        <v>547.538877412095</v>
+        <v>537.0196633326556</v>
       </c>
       <c r="E42" t="n">
-        <v>411.0923865229827</v>
+        <v>400.5731724435433</v>
       </c>
       <c r="F42" t="n">
-        <v>286.6605804061145</v>
+        <v>276.1413663266751</v>
       </c>
       <c r="G42" t="n">
-        <v>166.600762477979</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="H42" t="n">
-        <v>78.30334607857992</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="I42" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J42" t="n">
-        <v>142.0310743102189</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K42" t="n">
-        <v>461.7702203724454</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L42" t="n">
-        <v>819.6068599922778</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="M42" t="n">
-        <v>853.6028733498525</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="N42" t="n">
-        <v>1211.439512969685</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="O42" t="n">
-        <v>1211.439512969685</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="P42" t="n">
-        <v>1211.439512969685</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q42" t="n">
-        <v>1445.804604524576</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R42" t="n">
-        <v>1445.804604524576</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S42" t="n">
-        <v>1310.873927424444</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T42" t="n">
-        <v>1310.873927424444</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U42" t="n">
-        <v>1310.873927424444</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V42" t="n">
-        <v>1310.873927424444</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W42" t="n">
-        <v>1310.873927424444</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X42" t="n">
-        <v>1121.566849774456</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y42" t="n">
-        <v>980.0784096714838</v>
+        <v>919.8439005526046</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C43" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D43" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E43" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F43" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G43" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H43" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I43" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J43" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K43" t="n">
-        <v>110.7511332004334</v>
+        <v>100.231919120994</v>
       </c>
       <c r="L43" t="n">
-        <v>274.8787730742332</v>
+        <v>264.3595589947938</v>
       </c>
       <c r="M43" t="n">
-        <v>461.1703514124972</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N43" t="n">
-        <v>644.3599854437064</v>
+        <v>633.8407713642671</v>
       </c>
       <c r="O43" t="n">
-        <v>807.0647524854144</v>
+        <v>796.5455384059751</v>
       </c>
       <c r="P43" t="n">
-        <v>926.9409182619929</v>
+        <v>916.4217041825536</v>
       </c>
       <c r="Q43" t="n">
-        <v>930.3631146320439</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R43" t="n">
-        <v>930.3631146320439</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S43" t="n">
-        <v>727.5470308145932</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="T43" t="n">
-        <v>491.8279789828273</v>
+        <v>563.6590979143218</v>
       </c>
       <c r="U43" t="n">
-        <v>206.3891872247282</v>
+        <v>331.375284643462</v>
       </c>
       <c r="V43" t="n">
-        <v>28.91609209049151</v>
+        <v>99.09147137260223</v>
       </c>
       <c r="W43" t="n">
-        <v>28.91609209049151</v>
+        <v>99.09147137260223</v>
       </c>
       <c r="X43" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.91609209049151</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>455.276274010885</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>701.380974171361</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>455.276274010885</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>455.276274010885</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>455.276274010885</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>467.1866530569586</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>467.1866530569586</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>467.1866530569586</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>400.5731724435433</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>276.1413663266751</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>697.3038989236717</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>467.1866530569586</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>467.1866530569586</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>467.1866530569586</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>18.39687801105217</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>100.231919120994</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>264.3595589947938</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>450.6511373330579</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>633.8407713642671</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>796.5455384059751</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>916.4217041825536</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>455.276274010885</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
   </sheetData>
@@ -7976,19 +7978,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>223.677232219012</v>
       </c>
       <c r="O2" t="n">
         <v>149.5638374240964</v>
@@ -8058,10 +8060,10 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M3" t="n">
         <v>92.38712204931191</v>
@@ -8073,10 +8075,10 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>307.7529874266315</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8137,25 +8139,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K4" t="n">
-        <v>83.85861781084799</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L4" t="n">
-        <v>87.67503958280489</v>
+        <v>253.460534404825</v>
       </c>
       <c r="M4" t="n">
-        <v>90.30175956594327</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N4" t="n">
-        <v>82.99560390240157</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O4" t="n">
-        <v>89.9967499936978</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P4" t="n">
-        <v>89.52320263194594</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q4" t="n">
-        <v>98.47825105913979</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8216,7 +8218,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>363.7280257865542</v>
       </c>
       <c r="L5" t="n">
         <v>153.2481697304917</v>
@@ -8225,13 +8227,13 @@
         <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>149.1184913377841</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O5" t="n">
-        <v>149.5638374240964</v>
+        <v>379.5248125622476</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8292,16 +8294,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L6" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>198.7991868589244</v>
       </c>
       <c r="N6" t="n">
         <v>85.37211285416666</v>
@@ -8310,10 +8312,10 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8374,25 +8376,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K7" t="n">
-        <v>83.85861781084799</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L7" t="n">
-        <v>87.67503958280489</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M7" t="n">
-        <v>90.30175956594327</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N7" t="n">
-        <v>82.99560390240157</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O7" t="n">
-        <v>89.9967499936978</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P7" t="n">
-        <v>89.52320263194594</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q7" t="n">
-        <v>98.47825105913979</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8456,16 +8458,16 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>271.0551987388116</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
-        <v>379.6860267358784</v>
+        <v>267.5320806060471</v>
       </c>
       <c r="N8" t="n">
         <v>379.0794664759352</v>
       </c>
       <c r="O8" t="n">
-        <v>149.5638374240964</v>
+        <v>379.5248125622476</v>
       </c>
       <c r="P8" t="n">
         <v>150.3014472409252</v>
@@ -8529,28 +8531,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M9" t="n">
         <v>322.3480971874631</v>
       </c>
       <c r="N9" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
-        <v>199.0996236985014</v>
+        <v>313.3571814962057</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q9" t="n">
-        <v>320.9491282940651</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8690,22 +8692,22 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L11" t="n">
-        <v>153.2481697304917</v>
+        <v>227.8069106117196</v>
       </c>
       <c r="M11" t="n">
         <v>379.6860267358784</v>
       </c>
       <c r="N11" t="n">
-        <v>379.0794664759352</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O11" t="n">
         <v>379.5248125622476</v>
       </c>
       <c r="P11" t="n">
-        <v>224.8601881221531</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q11" t="n">
         <v>144.4986984183922</v>
@@ -8769,7 +8771,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>319.5579104714845</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
         <v>90.06034685691823</v>
@@ -8781,7 +8783,7 @@
         <v>315.3330879923178</v>
       </c>
       <c r="O12" t="n">
-        <v>92.68755888888889</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P12" t="n">
         <v>317.0443399574658</v>
@@ -8854,7 +8856,7 @@
         <v>253.4605344048249</v>
       </c>
       <c r="M13" t="n">
-        <v>278.4750710187353</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N13" t="n">
         <v>268.0356382773604</v>
@@ -8924,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L14" t="n">
-        <v>383.2091448686429</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M14" t="n">
         <v>379.6860267358784</v>
@@ -8939,13 +8941,13 @@
         <v>379.0794664759352</v>
       </c>
       <c r="O14" t="n">
-        <v>370.2334600314132</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P14" t="n">
-        <v>150.3014472409252</v>
+        <v>268.108476249245</v>
       </c>
       <c r="Q14" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9009,22 +9011,22 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>320.0213219950694</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>315.3330879923178</v>
       </c>
       <c r="O15" t="n">
-        <v>322.6485340270401</v>
+        <v>313.3571814962058</v>
       </c>
       <c r="P15" t="n">
         <v>317.0443399574658</v>
       </c>
       <c r="Q15" t="n">
-        <v>311.6577757632308</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9164,25 +9166,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L17" t="n">
-        <v>153.2481697304917</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M17" t="n">
-        <v>149.7250515977273</v>
+        <v>224.2837924789551</v>
       </c>
       <c r="N17" t="n">
         <v>379.0794664759352</v>
       </c>
       <c r="O17" t="n">
-        <v>379.5248125622476</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P17" t="n">
-        <v>268.108476249245</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9240,25 +9242,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
-        <v>320.0213219950694</v>
+        <v>310.7299694642351</v>
       </c>
       <c r="M18" t="n">
         <v>322.3480971874631</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>315.3330879923178</v>
       </c>
       <c r="O18" t="n">
-        <v>199.0996236985014</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P18" t="n">
-        <v>317.0443399574658</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9401,22 +9403,22 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K20" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L20" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M20" t="n">
-        <v>301.2346582324079</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N20" t="n">
-        <v>682.2612020826953</v>
+        <v>369.788113945101</v>
       </c>
       <c r="O20" t="n">
-        <v>594.0482827698827</v>
+        <v>379.5248125622476</v>
       </c>
       <c r="P20" t="n">
-        <v>502.0059847475129</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q20" t="n">
         <v>144.4986984183922</v>
@@ -9477,28 +9479,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>238.3374974274122</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>196.4724116665307</v>
       </c>
       <c r="M21" t="n">
-        <v>683.7992483186069</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N21" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9641,22 +9643,22 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L23" t="n">
-        <v>633.0344498835105</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M23" t="n">
-        <v>701.2411122488187</v>
+        <v>568.6083327865024</v>
       </c>
       <c r="N23" t="n">
-        <v>682.2612020826953</v>
+        <v>609.0404416140864</v>
       </c>
       <c r="O23" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P23" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q23" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9714,22 +9716,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>549.9822971332205</v>
       </c>
       <c r="M24" t="n">
-        <v>560.2818744604613</v>
+        <v>347.1973475692499</v>
       </c>
       <c r="N24" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>552.6095091651912</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K26" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L26" t="n">
-        <v>651.5514946987026</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M26" t="n">
-        <v>331.0195299270391</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N26" t="n">
-        <v>682.2612020826953</v>
+        <v>369.7881139451009</v>
       </c>
       <c r="O26" t="n">
-        <v>594.0482827698827</v>
+        <v>379.5248125622476</v>
       </c>
       <c r="P26" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q26" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R26" t="n">
         <v>102.5176150018526</v>
@@ -9951,25 +9953,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M27" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>676.7842391234617</v>
+        <v>191.7841776637791</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P27" t="n">
-        <v>235.8239269133934</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q27" t="n">
         <v>90.98815315591399</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K29" t="n">
-        <v>505.666843611017</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L29" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M29" t="n">
-        <v>501.5538002401705</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N29" t="n">
-        <v>149.1184913377841</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O29" t="n">
-        <v>594.0482827698827</v>
+        <v>370.2334600314132</v>
       </c>
       <c r="P29" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q29" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R29" t="n">
         <v>102.5176150018526</v>
@@ -10191,25 +10193,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M30" t="n">
-        <v>683.7992483186069</v>
+        <v>198.7991868589244</v>
       </c>
       <c r="N30" t="n">
-        <v>263.5850982253579</v>
+        <v>315.3330879923178</v>
       </c>
       <c r="O30" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10349,22 +10351,22 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K32" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L32" t="n">
-        <v>514.6993208616356</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M32" t="n">
-        <v>173.4951607018896</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N32" t="n">
-        <v>149.1184913377841</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O32" t="n">
-        <v>511.0149885552403</v>
+        <v>267.3708664324162</v>
       </c>
       <c r="P32" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q32" t="n">
         <v>331.2113854294513</v>
@@ -10428,25 +10430,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>451.5114979880621</v>
+        <v>196.4724116665307</v>
       </c>
       <c r="M33" t="n">
-        <v>453.8382731804558</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>119.7115202860602</v>
+        <v>315.3330879923178</v>
       </c>
       <c r="O33" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10583,25 +10585,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K35" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L35" t="n">
-        <v>514.6993208616356</v>
+        <v>373.9177923378086</v>
       </c>
       <c r="M35" t="n">
-        <v>511.1762027288711</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N35" t="n">
-        <v>359.6012874530055</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O35" t="n">
-        <v>149.5638374240964</v>
+        <v>379.5248125622476</v>
       </c>
       <c r="P35" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q35" t="n">
         <v>144.4986984183922</v>
@@ -10665,22 +10667,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>310.2665579406502</v>
       </c>
       <c r="L36" t="n">
-        <v>451.5114979880621</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M36" t="n">
-        <v>439.234186266066</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
-        <v>454.1387100200328</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P36" t="n">
-        <v>448.5345159504585</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q36" t="n">
         <v>90.98815315591399</v>
@@ -10823,25 +10825,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
-        <v>143.0584031792374</v>
+        <v>260.8654321875572</v>
       </c>
       <c r="L38" t="n">
-        <v>514.6993208616356</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M38" t="n">
-        <v>350.4612340883924</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N38" t="n">
-        <v>510.569642468928</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O38" t="n">
-        <v>511.0149885552403</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P38" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q38" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10902,25 +10904,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L39" t="n">
-        <v>451.5114979880621</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>453.8382731804558</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>195.4867613589103</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
-        <v>454.1387100200328</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>311.6577757632308</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11060,19 +11062,19 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
-        <v>504.5095543103812</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L41" t="n">
-        <v>514.6993208616356</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M41" t="n">
-        <v>511.1762027288711</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N41" t="n">
-        <v>349.8546738284493</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O41" t="n">
-        <v>149.5638374240964</v>
+        <v>224.1225783053243</v>
       </c>
       <c r="P41" t="n">
         <v>150.3014472409252</v>
@@ -11136,28 +11138,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>451.5114979880621</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
-        <v>126.7265294812056</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>446.8232639853105</v>
+        <v>315.3330879923178</v>
       </c>
       <c r="O42" t="n">
-        <v>92.68755888888889</v>
+        <v>313.3571814962058</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11297,16 +11299,16 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K44" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L44" t="n">
-        <v>153.2481697304917</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M44" t="n">
-        <v>149.7250515977273</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N44" t="n">
-        <v>149.1184913377841</v>
+        <v>369.7881139451009</v>
       </c>
       <c r="O44" t="n">
         <v>149.5638374240964</v>
@@ -11385,16 +11387,16 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>306.0417354614835</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -11455,25 +11457,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K46" t="n">
-        <v>83.85861781084799</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L46" t="n">
-        <v>87.67503958280489</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M46" t="n">
-        <v>90.30175956594327</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N46" t="n">
-        <v>82.99560390240157</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O46" t="n">
-        <v>89.9967499936978</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P46" t="n">
-        <v>89.52320263194594</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q46" t="n">
-        <v>98.47825105913979</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22595,19 +22597,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>23.23422713159621</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>108.7247660653656</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>320.8924585660982</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -22644,7 +22646,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>227.816073408046</v>
+        <v>145.0272327240314</v>
       </c>
       <c r="X3" t="n">
         <v>187.4140068734885</v>
@@ -22705,25 +22707,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>38.23819033443223</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -22781,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>166.5288231161317</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>159.2827713439475</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -22847,10 +22849,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>183.0084521145902</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>162.5648268504537</v>
       </c>
     </row>
     <row r="6">
@@ -22860,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>91.65719086407211</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22929,7 +22931,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22993,16 +22995,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>30.81223441176471</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -23021,19 +23023,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>361.2608498962084</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>151.6257423573478</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>168.5967144964697</v>
+        <v>370.5747930487306</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>179.0701528187257</v>
       </c>
       <c r="H8" t="n">
         <v>90.88124479102308</v>
@@ -23097,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D9" t="n">
-        <v>128.7880777047345</v>
+        <v>57.3296969535826</v>
       </c>
       <c r="E9" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23151,13 +23153,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V9" t="n">
-        <v>45.83885262302564</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W9" t="n">
         <v>227.816073408046</v>
@@ -23166,7 +23168,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="10">
@@ -23224,25 +23226,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>3.400886175297046</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>52.62342870236691</v>
       </c>
       <c r="V10" t="n">
-        <v>154.2588521405743</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>29.18989209316331</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -23261,16 +23263,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>315.9908363322753</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>168.5967144964697</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>182.7645189471708</v>
+        <v>319.6300418696404</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>179.0701528187257</v>
       </c>
       <c r="H11" t="n">
         <v>90.88124479102308</v>
@@ -23303,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>221.2655964161775</v>
@@ -23437,7 +23439,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23473,7 +23475,7 @@
         <v>52.62342870236691</v>
       </c>
       <c r="V13" t="n">
-        <v>184.3333396127333</v>
+        <v>154.2588521405743</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
@@ -23546,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1952022697474</v>
+        <v>23.23422713159621</v>
       </c>
       <c r="V14" t="n">
         <v>108.7247660653656</v>
       </c>
       <c r="W14" t="n">
-        <v>137.3280695432443</v>
+        <v>358.5054431434315</v>
       </c>
       <c r="X14" t="n">
-        <v>155.5971038781226</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.4375791726147</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -23571,25 +23573,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>150.2783710965517</v>
+        <v>49.21814208904536</v>
       </c>
       <c r="C15" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>77.48953303155767</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23628,19 +23630,19 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X15" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="16">
@@ -23735,19 +23737,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>151.6257423573478</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>168.5967144964697</v>
+        <v>196.0080627329374</v>
       </c>
       <c r="F17" t="n">
         <v>182.7645189471708</v>
       </c>
       <c r="G17" t="n">
-        <v>206.4815010551934</v>
+        <v>179.0701528187257</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8422199291742</v>
+        <v>90.88124479102308</v>
       </c>
       <c r="I17" t="n">
         <v>136.9537457384598</v>
@@ -23966,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>193.9401713525995</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>159.2827713439475</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>151.6257423573478</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
         <v>409.0311279568768</v>
@@ -24017,25 +24019,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>237.659144037011</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>162.5648268504537</v>
       </c>
     </row>
     <row r="21">
@@ -24045,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>128.5957162214335</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24127,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>154.0032240193895</v>
@@ -24139,16 +24141,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>94.11361211645004</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>120.0714221183693</v>
       </c>
       <c r="I22" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24203,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>221.1827517809275</v>
       </c>
       <c r="D23" t="n">
         <v>381.5867174954989</v>
@@ -24218,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24251,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>45.47695407634691</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
         <v>392.5258019886049</v>
@@ -24288,22 +24290,22 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>108.2546708345231</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24364,28 +24366,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>131.7634811092929</v>
+        <v>100.4445175928074</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>7.052077763763947</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
         <v>282.5844038405181</v>
@@ -24430,7 +24432,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24440,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>193.9401713525995</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
         <v>412.725494085322</v>
@@ -24458,10 +24460,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>23.85722318437456</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>137.3280695432443</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>155.5971038781226</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>162.5648268504537</v>
       </c>
     </row>
     <row r="27">
@@ -24519,28 +24521,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24588,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>128.5957162214335</v>
       </c>
     </row>
     <row r="28">
@@ -24601,13 +24603,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>68.15966136820177</v>
+        <v>120.5375351850542</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24677,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>166.5288231161317</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>170.4533947144622</v>
+        <v>151.6257423573478</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>168.5967144964697</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
         <v>320.8422199291742</v>
@@ -24731,10 +24733,10 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
@@ -24746,7 +24748,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>189.9761750869214</v>
       </c>
     </row>
     <row r="30">
@@ -24756,28 +24758,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24825,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>128.5957162214335</v>
       </c>
     </row>
     <row r="31">
@@ -24838,13 +24840,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>158.5558509211406</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>115.6030465162497</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>155.7526754391568</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>233.3618613134482</v>
@@ -24898,7 +24900,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
@@ -24914,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>35.03864712313901</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>27.7925953509548</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>179.0370905938154</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>168.5967144964697</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>179.0701528187257</v>
       </c>
       <c r="H32" t="n">
         <v>320.8422199291742</v>
@@ -24980,10 +24982,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>67.19190509996236</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.07465085746099</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -24993,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D33" t="n">
         <v>128.7880777047345</v>
@@ -25047,7 +25049,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T33" t="n">
-        <v>92.94867414296836</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25062,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>128.5957162214335</v>
       </c>
     </row>
     <row r="34">
@@ -25072,31 +25074,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>144.1400749395019</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25151,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>166.5288231161317</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>159.2827713439475</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>179.0370905938155</v>
       </c>
       <c r="E35" t="n">
-        <v>37.106538503477</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>51.27434295417811</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>47.57997682573296</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
         <v>320.8422199291742</v>
@@ -25205,10 +25207,10 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>156.0946247696136</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
@@ -25217,7 +25219,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>155.5971038781226</v>
       </c>
       <c r="Y35" t="n">
         <v>392.5258019886049</v>
@@ -25239,7 +25241,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E36" t="n">
-        <v>62.18601122025899</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F36" t="n">
         <v>123.1874880556995</v>
@@ -25281,10 +25283,10 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25299,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>128.5957162214335</v>
       </c>
     </row>
     <row r="37">
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>55.33633131988412</v>
+        <v>140.2293437907475</v>
       </c>
       <c r="D37" t="n">
         <v>154.0767819665104</v>
@@ -25363,22 +25365,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>1.778543856695563</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25394,16 +25396,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>63.22054357918756</v>
+        <v>179.0370905938155</v>
       </c>
       <c r="E38" t="n">
-        <v>37.106538503477</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>51.27434295417811</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>47.57997682573296</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
         <v>320.8422199291742</v>
@@ -25448,13 +25450,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>108.7247660653656</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>137.3280695432443</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>155.5971038781226</v>
       </c>
       <c r="Y38" t="n">
         <v>392.5258019886049</v>
@@ -25467,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D39" t="n">
         <v>128.7880777047345</v>
@@ -25521,7 +25523,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T39" t="n">
-        <v>92.94867414296836</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25536,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>128.5957162214335</v>
       </c>
     </row>
     <row r="40">
@@ -25594,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>3.400886175297046</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V40" t="n">
-        <v>210.2831670182385</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>278.7353941257269</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
@@ -25628,13 +25630,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>159.2827713439475</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>151.6257423573478</v>
       </c>
       <c r="E41" t="n">
-        <v>64.24544930973337</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
         <v>412.725494085322</v>
@@ -25643,7 +25645,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
         <v>136.9537457384598</v>
@@ -25676,13 +25678,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1952022697474</v>
+        <v>23.23422713159621</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
@@ -25691,10 +25693,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>24.10692788512983</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>189.9761750869214</v>
       </c>
     </row>
     <row r="42">
@@ -25704,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>49.21814208904536</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25755,7 +25757,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T42" t="n">
         <v>175.2139736830806</v>
@@ -25770,10 +25772,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y42" t="n">
-        <v>37.44751905330517</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="43">
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>3.400886175297046</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V43" t="n">
-        <v>87.62118754448966</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W43" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>151.8518715669121</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25865,10 +25867,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>186.6941195804153</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>151.6257423573478</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
@@ -25922,10 +25924,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>108.7247660653656</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>137.3280695432443</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
@@ -25950,19 +25952,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
-        <v>135.0820259802211</v>
+        <v>69.13468017294002</v>
       </c>
       <c r="F45" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26001,10 +26003,10 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V45" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>187.4140068734885</v>
@@ -26077,16 +26079,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>29.18989209316331</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>229194.2549410869</v>
+        <v>427894.3627142747</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>229194.2549410869</v>
+        <v>427894.3627142746</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>427894.3627142747</v>
+        <v>427894.3627142746</v>
       </c>
     </row>
     <row r="5">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>688870.3493752525</v>
+        <v>427894.3627142746</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>688870.3493752525</v>
+        <v>593931.439072692</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>688870.349375252</v>
+        <v>427894.3627142746</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>688870.349375252</v>
+        <v>427894.3627142746</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>522833.2730168353</v>
+        <v>427894.3627142747</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>522833.2730168353</v>
+        <v>427894.3627142746</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>522833.2730168353</v>
+        <v>427894.3627142747</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>522833.2730168352</v>
+        <v>427894.3627142746</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>229194.2549410869</v>
+        <v>427894.3627142744</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33815.54581098</v>
+        <v>63131.95515456511</v>
       </c>
       <c r="C2" t="n">
-        <v>33815.54581098</v>
+        <v>63131.9551545651</v>
       </c>
       <c r="D2" t="n">
+        <v>63131.95515456511</v>
+      </c>
+      <c r="E2" t="n">
+        <v>63131.95515456511</v>
+      </c>
+      <c r="F2" t="n">
+        <v>63131.95515456513</v>
+      </c>
+      <c r="G2" t="n">
+        <v>63131.95515456511</v>
+      </c>
+      <c r="H2" t="n">
+        <v>63131.9551545651</v>
+      </c>
+      <c r="I2" t="n">
+        <v>87629.22871564307</v>
+      </c>
+      <c r="J2" t="n">
+        <v>63131.9551545651</v>
+      </c>
+      <c r="K2" t="n">
+        <v>63131.95515456511</v>
+      </c>
+      <c r="L2" t="n">
+        <v>63131.95515456511</v>
+      </c>
+      <c r="M2" t="n">
+        <v>63131.95515456511</v>
+      </c>
+      <c r="N2" t="n">
+        <v>63131.9551545651</v>
+      </c>
+      <c r="O2" t="n">
         <v>63131.95515456512</v>
       </c>
-      <c r="E2" t="n">
-        <v>63131.9551545651</v>
-      </c>
-      <c r="F2" t="n">
-        <v>63131.95515456512</v>
-      </c>
-      <c r="G2" t="n">
-        <v>63131.95515456512</v>
-      </c>
-      <c r="H2" t="n">
-        <v>101636.6089242176</v>
-      </c>
-      <c r="I2" t="n">
-        <v>101636.6089242175</v>
-      </c>
-      <c r="J2" t="n">
-        <v>101636.6089242175</v>
-      </c>
-      <c r="K2" t="n">
-        <v>101636.6089242175</v>
-      </c>
-      <c r="L2" t="n">
-        <v>77139.33536313962</v>
-      </c>
-      <c r="M2" t="n">
-        <v>77139.33536313959</v>
-      </c>
-      <c r="N2" t="n">
-        <v>77139.33536313962</v>
-      </c>
-      <c r="O2" t="n">
-        <v>77139.33536313957</v>
-      </c>
       <c r="P2" t="n">
-        <v>33815.54581098</v>
+        <v>63131.95515456511</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>77065.21187122262</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>71432.7777071639</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26381,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>97522.77363554281</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>61151.45246971229</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26415,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>199.4110080167677</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>199.4110080167677</v>
       </c>
       <c r="D4" t="n">
         <v>199.4110080167677</v>
@@ -26433,31 +26435,31 @@
         <v>199.4110080167677</v>
       </c>
       <c r="H4" t="n">
-        <v>461.3207027394317</v>
+        <v>199.4110080167677</v>
       </c>
       <c r="I4" t="n">
-        <v>461.3207027394316</v>
+        <v>366.0421243047516</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3207027394316</v>
+        <v>199.4110080167677</v>
       </c>
       <c r="K4" t="n">
-        <v>461.3207027394317</v>
+        <v>199.4110080167677</v>
       </c>
       <c r="L4" t="n">
-        <v>294.6895864514477</v>
+        <v>199.4110080167677</v>
       </c>
       <c r="M4" t="n">
-        <v>294.6895864514477</v>
+        <v>199.4110080167677</v>
       </c>
       <c r="N4" t="n">
-        <v>294.6895864514477</v>
+        <v>199.4110080167677</v>
       </c>
       <c r="O4" t="n">
-        <v>294.6895864514478</v>
+        <v>199.4110080167677</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>199.4110080167677</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33627.6</v>
+        <v>47609.22728839959</v>
       </c>
       <c r="C5" t="n">
-        <v>33627.6</v>
+        <v>47609.22728839959</v>
       </c>
       <c r="D5" t="n">
         <v>47609.22728839959</v>
@@ -26485,31 +26487,31 @@
         <v>13981.62728839959</v>
       </c>
       <c r="H5" t="n">
-        <v>35957.85727717314</v>
+        <v>13981.62728839959</v>
       </c>
       <c r="I5" t="n">
-        <v>35957.85727717314</v>
+        <v>27963.25457679918</v>
       </c>
       <c r="J5" t="n">
-        <v>35957.85727717314</v>
+        <v>13981.62728839959</v>
       </c>
       <c r="K5" t="n">
-        <v>35957.85727717314</v>
+        <v>13981.62728839959</v>
       </c>
       <c r="L5" t="n">
-        <v>21976.22998877355</v>
+        <v>13981.62728839959</v>
       </c>
       <c r="M5" t="n">
-        <v>21976.22998877355</v>
+        <v>13981.62728839959</v>
       </c>
       <c r="N5" t="n">
-        <v>21976.22998877355</v>
+        <v>13981.62728839959</v>
       </c>
       <c r="O5" t="n">
-        <v>21976.22998877355</v>
+        <v>13981.62728839959</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>13981.62728839959</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>187.9458109800034</v>
+        <v>-61741.89501307386</v>
       </c>
       <c r="C6" t="n">
-        <v>187.9458109800034</v>
+        <v>15323.31685814875</v>
       </c>
       <c r="D6" t="n">
-        <v>-56109.46084901514</v>
+        <v>15323.31685814876</v>
       </c>
       <c r="E6" t="n">
         <v>48950.91685814875</v>
       </c>
       <c r="F6" t="n">
+        <v>48950.91685814877</v>
+      </c>
+      <c r="G6" t="n">
+        <v>48950.91685814875</v>
+      </c>
+      <c r="H6" t="n">
+        <v>48950.91685814874</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-1851.520455173155</v>
+      </c>
+      <c r="J6" t="n">
+        <v>48950.91685814875</v>
+      </c>
+      <c r="K6" t="n">
+        <v>48950.91685814875</v>
+      </c>
+      <c r="L6" t="n">
+        <v>48950.91685814875</v>
+      </c>
+      <c r="M6" t="n">
+        <v>48950.91685814875</v>
+      </c>
+      <c r="N6" t="n">
+        <v>48950.91685814875</v>
+      </c>
+      <c r="O6" t="n">
         <v>48950.91685814876</v>
       </c>
-      <c r="G6" t="n">
-        <v>48950.91685814876</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-32305.34269123783</v>
-      </c>
-      <c r="I6" t="n">
-        <v>65217.43094430491</v>
-      </c>
-      <c r="J6" t="n">
-        <v>65217.43094430496</v>
-      </c>
-      <c r="K6" t="n">
-        <v>65217.43094430496</v>
-      </c>
-      <c r="L6" t="n">
-        <v>54868.41578791462</v>
-      </c>
-      <c r="M6" t="n">
-        <v>54868.41578791459</v>
-      </c>
-      <c r="N6" t="n">
-        <v>54868.41578791462</v>
-      </c>
-      <c r="O6" t="n">
-        <v>54868.41578791458</v>
-      </c>
       <c r="P6" t="n">
-        <v>33815.54581098</v>
+        <v>48950.91685814875</v>
       </c>
     </row>
   </sheetData>
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="D4" t="n">
         <v>229.9609751381512</v>
@@ -26805,31 +26807,31 @@
         <v>229.9609751381512</v>
       </c>
       <c r="H4" t="n">
-        <v>591.4121262692951</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="I4" t="n">
-        <v>591.4121262692951</v>
+        <v>459.9219502763023</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="K4" t="n">
-        <v>591.4121262692951</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L4" t="n">
-        <v>361.4511511311439</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M4" t="n">
-        <v>361.4511511311439</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N4" t="n">
-        <v>361.4511511311439</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O4" t="n">
-        <v>361.4511511311439</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
     </row>
   </sheetData>
@@ -27009,28 +27011,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>361.4511511311439</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>361.4511511311439</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34778,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,10 +34795,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>165.7854948220201</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,7 +34938,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,13 +34947,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35030,10 +35032,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>121.0870361379581</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35176,16 +35178,16 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>117.8070290083198</v>
-      </c>
-      <c r="M8" t="n">
-        <v>229.9609751381512</v>
       </c>
       <c r="N8" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M9" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>220.6696226073169</v>
+      </c>
+      <c r="P9" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="O9" t="n">
-        <v>106.4120648096125</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,22 +35412,22 @@
         <v>146.110881726089</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="M11" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="N11" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="P11" t="n">
-        <v>74.55874088122788</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,19 +35491,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>106.4120648096125</v>
+        <v>106.4120648096124</v>
       </c>
       <c r="N12" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P12" t="n">
         <v>229.9609751381512</v>
@@ -35574,7 +35576,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M13" t="n">
-        <v>188.173311452792</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N13" t="n">
         <v>185.0400343749588</v>
@@ -35644,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>229.9609751381512</v>
@@ -35659,13 +35661,13 @@
         <v>229.9609751381512</v>
       </c>
       <c r="O14" t="n">
-        <v>220.6696226073168</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>117.8070290083198</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35729,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
       <c r="O15" t="n">
-        <v>229.9609751381512</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="P15" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="Q15" t="n">
-        <v>220.6696226073168</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,25 +35886,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="N17" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="O17" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>117.8070290083198</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>229.9609751381512</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="M18" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O18" t="n">
-        <v>106.4120648096125</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P18" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36121,22 +36123,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>151.5096066346806</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N20" t="n">
-        <v>533.1427107449111</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457863</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065877</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>148.7405620940789</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="M21" t="n">
-        <v>591.4121262692951</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N21" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36361,22 +36363,22 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>479.7862801530189</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>551.5160606510915</v>
+        <v>418.8832811887752</v>
       </c>
       <c r="N23" t="n">
-        <v>533.1427107449111</v>
+        <v>459.9219502763023</v>
       </c>
       <c r="O23" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>459.9219502763023</v>
       </c>
       <c r="M24" t="n">
-        <v>467.8947524111493</v>
+        <v>254.810225519938</v>
       </c>
       <c r="N24" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>459.9219502763023</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36592,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M26" t="n">
-        <v>181.2944783293118</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>488.450591816478</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M27" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>591.4121262692951</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P27" t="n">
-        <v>148.7405620940788</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36829,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>351.8287486424433</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>220.6696226073168</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M30" t="n">
-        <v>591.4121262692951</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="N30" t="n">
-        <v>178.2129853711913</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,22 +37071,22 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L32" t="n">
-        <v>361.4511511311439</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>23.77010910416237</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O32" t="n">
-        <v>361.4511511311439</v>
+        <v>117.8070290083198</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
@@ -37148,25 +37150,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>361.4511511311439</v>
+        <v>106.4120648096124</v>
       </c>
       <c r="M33" t="n">
-        <v>361.4511511311439</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>34.33940743189355</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,25 +37305,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>361.4511511311439</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="M35" t="n">
-        <v>361.4511511311439</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N35" t="n">
-        <v>210.4827961152214</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P35" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37385,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="L36" t="n">
-        <v>361.4511511311439</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M36" t="n">
-        <v>346.8470642167541</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>361.4511511311439</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P36" t="n">
-        <v>361.4511511311439</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37543,25 +37545,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>117.8070290083198</v>
       </c>
       <c r="L38" t="n">
-        <v>361.4511511311439</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M38" t="n">
-        <v>200.7361824906651</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N38" t="n">
-        <v>361.4511511311439</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>361.4511511311439</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L39" t="n">
-        <v>361.4511511311439</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>361.4511511311439</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>110.1146485047436</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>361.4511511311439</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>220.6696226073168</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,19 +37782,19 @@
         <v>146.110881726089</v>
       </c>
       <c r="K41" t="n">
-        <v>361.4511511311439</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>361.4511511311439</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M41" t="n">
-        <v>361.4511511311439</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N41" t="n">
-        <v>200.7361824906652</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>361.4511511311439</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>34.33940743189366</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>361.4511511311439</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,16 +38019,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>220.6696226073168</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -38105,16 +38107,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,25 +38177,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
